--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-17.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-17.xlsx
@@ -2270,37 +2270,33 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>30-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.705%</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+          <t>2.545%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -2316,19 +2312,23 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYDEC</t>
+          <t>Halifax House Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2338,37 +2338,33 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelDEC</t>
+          <t>Halifax House Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2384,27 +2380,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelDEC</t>
+          <t>Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2420,27 +2416,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelDEC</t>
+          <t>Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2456,17 +2452,25 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>€275.572B</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+          <t>1.7%</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="H58" t="n">
         <v>3</v>
       </c>
@@ -2484,25 +2488,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>€275.572B</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
         <v>3</v>
       </c>
@@ -2510,29 +2506,33 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.17%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -2542,29 +2542,29 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIDEC</t>
+          <t>IPC-Fipe Inflation MoMDEC</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>1.17%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2590,13 +2590,13 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2622,17 +2622,17 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>44</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2654,23 +2654,23 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2680,27 +2680,23 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>HCOB Construction PMIDEC</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5.8%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>6%</t>
-        </is>
-      </c>
+          <t>48.5</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>5.8%</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -2711,92 +2707,100 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>S$505.7B</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
+          <t>5.8%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>S$502.0B</t>
+          <t>5.8%</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>S&amp;P Global Construction PMIDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>55.2</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>54.4</t>
-        </is>
-      </c>
+          <t>S$505.7B</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>S$502.0B</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>12-Month Letras Auction</t>
+          <t>S&amp;P Global Construction PMIDEC</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2.207%</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+          <t>55.2</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>54.4</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>54.8</t>
+        </is>
+      </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2812,13 +2816,13 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>6-Month Letras Auction</t>
+          <t>12-Month Letras Auction</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2.552%</t>
+          <t>2.207%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -2830,37 +2834,29 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashDEC</t>
+          <t>6-Month Letras Auction</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>2.552%</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -2876,23 +2872,23 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Inflation Rate YoY FlashDEC</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -2912,27 +2908,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashDEC</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2948,19 +2944,23 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashDEC</t>
+          <t>Core Inflation Rate YoY FlashDEC</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -2980,27 +2980,23 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CPI FlashDEC</t>
+          <t>Inflation Rate MoM FlashDEC</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -3011,32 +3007,32 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelDEC</t>
+          <t>CPI FlashDEC</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -3052,27 +3048,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelDEC</t>
+          <t>Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3088,27 +3084,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelDEC</t>
+          <t>Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -3124,23 +3120,23 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -3155,22 +3151,30 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>30-Year Treasury Gilt Auction</t>
+          <t>Harmonised Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4.747%</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H79" t="n">
         <v>3</v>
       </c>
@@ -3178,23 +3182,23 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>30-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.94%</t>
+          <t>4.747%</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -3206,31 +3210,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PPI MoMNOV</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>1.94%</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
         <v>3</v>
       </c>
@@ -3248,19 +3248,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PPI YoYNOV</t>
+          <t>PPI MoMNOV</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>5.89%</t>
+          <t>0.94%</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -3275,50 +3275,58 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Fiscal Year GDP Growth Prel2025-24</t>
+          <t>PPI YoYNOV</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>8.2%</t>
+          <t>5.89%</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>Fiscal Year GDP Growth Prel2025-24</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>8.2%</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
       <c r="H84" t="n">
         <v>2</v>
       </c>
@@ -3326,37 +3334,25 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>C$-0.92B</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>C$-1B</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>C$-1.5B</t>
-        </is>
-      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -3372,23 +3368,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>C$64.22B</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
+          <t>C$-0.92B</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>C$-1B</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>C$64.0B</t>
+          <t>C$-1.5B</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3404,19 +3404,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>C$65.14B</t>
+          <t>C$64.22B</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>C$65.5B</t>
+          <t>C$64.0B</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -3431,32 +3431,28 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>$-73.8B</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>$-78B</t>
-        </is>
-      </c>
+          <t>C$65.14B</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>$-70B</t>
+          <t>C$65.5B</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -3472,19 +3468,23 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>$265.7B</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>$-78B</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>$264B</t>
+          <t>$-70B</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -3504,19 +3504,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>$339.6B</t>
+          <t>$265.7B</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>$334B</t>
+          <t>$264B</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -3526,7 +3526,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3536,55 +3536,51 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/04</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>7.1%</t>
+          <t>$339.6B</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>$334B</t>
+        </is>
+      </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ivey PMI s.aDEC</t>
+          <t>Redbook YoYJAN/04</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -3595,23 +3591,23 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ISM Services PMIDEC</t>
+          <t>Ivey PMI s.aDEC</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3636,23 +3632,23 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsNOV</t>
+          <t>ISM Services PMIDEC</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>7.744M</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>7.70M</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>7.69M</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -3672,23 +3668,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityDEC</t>
+          <t>JOLTs Job OpeningsNOV</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>53.7</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
+          <t>7.744M</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7.70M</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>7.69M</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3704,19 +3704,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentDEC</t>
+          <t>ISM Services Business ActivityDEC</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -3736,19 +3736,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersDEC</t>
+          <t>ISM Services EmploymentDEC</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -3768,19 +3768,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ISM Services PricesDEC</t>
+          <t>ISM Services New OrdersDEC</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -3800,19 +3800,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsNOV</t>
+          <t>ISM Services PricesDEC</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3.326M</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>3.31M</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -3822,7 +3822,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3832,17 +3832,21 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>42-Day Bill Auction</t>
+          <t>JOLTs Job QuitsNOV</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4.280%</t>
+          <t>3.326M</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>3.31M</t>
+        </is>
+      </c>
       <c r="H100" t="n">
         <v>3</v>
       </c>
@@ -3850,7 +3854,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3860,13 +3864,13 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>42-Day Bill Auction</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>4.280%</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -3878,7 +3882,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3888,141 +3892,145 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/03</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>-1.442M</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>$9.78B</t>
+          <t>-1.442M</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>$4.5B</t>
-        </is>
-      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorNOV</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+          <t>$9.78B</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>$4.5B</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Monthly CPI IndicatorNOV</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>$150.2B</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr"/>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>$ 152.0B</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr"/>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2.545%</t>
+          <t>$150.2B</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>$ 152.0B</t>
+        </is>
+      </c>
       <c r="H106" t="n">
         <v>3</v>
       </c>

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-17.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H501"/>
+  <dimension ref="A1:H505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2315,10 +2315,14 @@
           <t>Halifax House Price Index MoMDEC</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2351,10 +2355,14 @@
           <t>Halifax House Price Index YoYDEC</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -13224,11 +13232,15 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D408" t="inlineStr"/>
-      <c r="E408" t="inlineStr"/>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F408" t="inlineStr"/>
       <c r="G408" t="inlineStr"/>
       <c r="H408" t="inlineStr">
@@ -13250,17 +13262,21 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D409" t="inlineStr"/>
       <c r="E409" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F409" t="inlineStr"/>
-      <c r="G409" t="inlineStr"/>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="H409" t="inlineStr">
         <is>
           <t>3</t>
@@ -13270,89 +13286,97 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>07:01 PM</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>RICS House Price BalanceDEC</t>
         </is>
       </c>
       <c r="D410" t="inlineStr"/>
       <c r="E410" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="F410" t="inlineStr"/>
       <c r="G410" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>17.0%</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D411" t="inlineStr"/>
-      <c r="E411" t="inlineStr"/>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F411" t="inlineStr"/>
-      <c r="G411" t="inlineStr"/>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>4.30%</t>
+        </is>
+      </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>07:01 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>RICS House Price BalanceDEC</t>
+          <t>Employment ChangeDEC</t>
         </is>
       </c>
       <c r="D412" t="inlineStr"/>
       <c r="E412" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>35.6K</t>
         </is>
       </c>
       <c r="F412" t="inlineStr"/>
       <c r="G412" t="inlineStr">
         <is>
-          <t>17.0%</t>
+          <t>25.1K</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
@@ -13374,24 +13398,20 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D413" t="inlineStr"/>
       <c r="E413" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>52.6K</t>
         </is>
       </c>
       <c r="F413" t="inlineStr"/>
-      <c r="G413" t="inlineStr">
-        <is>
-          <t>4.30%</t>
-        </is>
-      </c>
+      <c r="G413" t="inlineStr"/>
       <c r="H413" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -13408,24 +13428,20 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D414" t="inlineStr"/>
       <c r="E414" t="inlineStr">
         <is>
-          <t>35.6K</t>
+          <t>-17.0K</t>
         </is>
       </c>
       <c r="F414" t="inlineStr"/>
-      <c r="G414" t="inlineStr">
-        <is>
-          <t>25.1K</t>
-        </is>
-      </c>
+      <c r="G414" t="inlineStr"/>
       <c r="H414" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -13442,81 +13458,81 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D415" t="inlineStr"/>
       <c r="E415" t="inlineStr">
         <is>
-          <t>52.6K</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F415" t="inlineStr"/>
-      <c r="G415" t="inlineStr"/>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>66.8%</t>
+        </is>
+      </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D416" t="inlineStr"/>
       <c r="E416" t="inlineStr">
         <is>
-          <t>-17.0K</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="F416" t="inlineStr"/>
       <c r="G416" t="inlineStr"/>
       <c r="H416" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>20-Year JGB Auction</t>
         </is>
       </c>
       <c r="D417" t="inlineStr"/>
       <c r="E417" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>1.879%</t>
         </is>
       </c>
       <c r="F417" t="inlineStr"/>
-      <c r="G417" t="inlineStr">
-        <is>
-          <t>66.8%</t>
-        </is>
-      </c>
+      <c r="G417" t="inlineStr"/>
       <c r="H417" t="inlineStr">
         <is>
           <t>3</t>
@@ -13526,57 +13542,57 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D418" t="inlineStr"/>
       <c r="E418" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.4796%</t>
         </is>
       </c>
       <c r="F418" t="inlineStr"/>
       <c r="G418" t="inlineStr"/>
       <c r="H418" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
+      <c r="A419" t="inlineStr"/>
       <c r="B419" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>20-Year JGB Auction</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr">
         <is>
-          <t>1.879%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F419" t="inlineStr"/>
-      <c r="G419" t="inlineStr"/>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H419" t="inlineStr">
         <is>
           <t>3</t>
@@ -13584,29 +13600,29 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
+      <c r="A420" t="inlineStr"/>
       <c r="B420" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D420" t="inlineStr"/>
       <c r="E420" t="inlineStr">
         <is>
-          <t>0.4796%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F420" t="inlineStr"/>
-      <c r="G420" t="inlineStr"/>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="H420" t="inlineStr">
         <is>
           <t>3</t>
@@ -13622,19 +13638,19 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D421" t="inlineStr"/>
       <c r="E421" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F421" t="inlineStr"/>
       <c r="G421" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
@@ -13647,26 +13663,18 @@
       <c r="A422" t="inlineStr"/>
       <c r="B422" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
-      <c r="E422" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="E422" t="inlineStr"/>
       <c r="F422" t="inlineStr"/>
-      <c r="G422" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="G422" t="inlineStr"/>
       <c r="H422" t="inlineStr">
         <is>
           <t>3</t>
@@ -13677,26 +13685,18 @@
       <c r="A423" t="inlineStr"/>
       <c r="B423" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>OPEC Monthly Report</t>
         </is>
       </c>
       <c r="D423" t="inlineStr"/>
-      <c r="E423" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E423" t="inlineStr"/>
       <c r="F423" t="inlineStr"/>
-      <c r="G423" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G423" t="inlineStr"/>
       <c r="H423" t="inlineStr">
         <is>
           <t>3</t>
@@ -13707,18 +13707,26 @@
       <c r="A424" t="inlineStr"/>
       <c r="B424" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
-      <c r="E424" t="inlineStr"/>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>$-37.84B</t>
+        </is>
+      </c>
       <c r="F424" t="inlineStr"/>
-      <c r="G424" t="inlineStr"/>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>$ -23B</t>
+        </is>
+      </c>
       <c r="H424" t="inlineStr">
         <is>
           <t>3</t>
@@ -13729,18 +13737,26 @@
       <c r="A425" t="inlineStr"/>
       <c r="B425" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>OPEC Monthly Report</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
-      <c r="E425" t="inlineStr"/>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>$32.11B</t>
+        </is>
+      </c>
       <c r="F425" t="inlineStr"/>
-      <c r="G425" t="inlineStr"/>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>$ 36B</t>
+        </is>
+      </c>
       <c r="H425" t="inlineStr">
         <is>
           <t>3</t>
@@ -13756,19 +13772,19 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr">
         <is>
-          <t>$-37.84B</t>
+          <t>$69.95B</t>
         </is>
       </c>
       <c r="F426" t="inlineStr"/>
       <c r="G426" t="inlineStr">
         <is>
-          <t>$ -23B</t>
+          <t>$ 59B</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
@@ -13778,59 +13794,43 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="inlineStr"/>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C427" t="inlineStr">
-        <is>
-          <t>ExportsDEC</t>
-        </is>
-      </c>
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Thursday January 16 2025</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr"/>
+      <c r="C427" t="inlineStr"/>
       <c r="D427" t="inlineStr"/>
-      <c r="E427" t="inlineStr">
-        <is>
-          <t>$32.11B</t>
-        </is>
-      </c>
+      <c r="E427" t="inlineStr"/>
       <c r="F427" t="inlineStr"/>
-      <c r="G427" t="inlineStr">
-        <is>
-          <t>$ 36B</t>
-        </is>
-      </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G427" t="inlineStr"/>
+      <c r="H427" t="inlineStr"/>
     </row>
     <row r="428">
-      <c r="A428" t="inlineStr"/>
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="inlineStr">
         <is>
-          <t>$69.95B</t>
+          <t>3.02%</t>
         </is>
       </c>
       <c r="F428" t="inlineStr"/>
-      <c r="G428" t="inlineStr">
-        <is>
-          <t>$ 59B</t>
-        </is>
-      </c>
+      <c r="G428" t="inlineStr"/>
       <c r="H428" t="inlineStr">
         <is>
           <t>3</t>
@@ -13840,44 +13840,72 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Thursday January 16 2025</t>
-        </is>
-      </c>
-      <c r="B429" t="inlineStr"/>
-      <c r="C429" t="inlineStr"/>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoM FinalDEC</t>
+        </is>
+      </c>
       <c r="D429" t="inlineStr"/>
-      <c r="E429" t="inlineStr"/>
-      <c r="F429" t="inlineStr"/>
-      <c r="G429" t="inlineStr"/>
-      <c r="H429" t="inlineStr"/>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D430" t="inlineStr"/>
       <c r="E430" t="inlineStr">
         <is>
-          <t>3.02%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F430" t="inlineStr"/>
-      <c r="G430" t="inlineStr"/>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -13894,28 +13922,28 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -13932,24 +13960,28 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D432" t="inlineStr"/>
       <c r="E432" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F432" t="inlineStr"/>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -13961,33 +13993,29 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
       <c r="E433" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F433" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr"/>
       <c r="G433" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -13999,33 +14027,29 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>GDP YoYNOV</t>
         </is>
       </c>
       <c r="D434" t="inlineStr"/>
       <c r="E434" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F434" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr"/>
       <c r="G434" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -14042,24 +14066,24 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>GDP 3-Month AvgNOV</t>
         </is>
       </c>
       <c r="D435" t="inlineStr"/>
       <c r="E435" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F435" t="inlineStr"/>
       <c r="G435" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14076,24 +14100,20 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>GDP YoYNOV</t>
+          <t>Goods Trade BalanceNOV</t>
         </is>
       </c>
       <c r="D436" t="inlineStr"/>
       <c r="E436" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>£-18.97B</t>
         </is>
       </c>
       <c r="F436" t="inlineStr"/>
-      <c r="G436" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G436" t="inlineStr"/>
       <c r="H436" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14110,21 +14130,17 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>GDP 3-Month AvgNOV</t>
+          <t>Goods Trade Balance Non-EUNOV</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>£-7.28B</t>
         </is>
       </c>
       <c r="F437" t="inlineStr"/>
-      <c r="G437" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G437" t="inlineStr"/>
       <c r="H437" t="inlineStr">
         <is>
           <t>2</t>
@@ -14144,13 +14160,13 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Goods Trade BalanceNOV</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D438" t="inlineStr"/>
       <c r="E438" t="inlineStr">
         <is>
-          <t>£-18.97B</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F438" t="inlineStr"/>
@@ -14174,13 +14190,13 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Goods Trade Balance Non-EUNOV</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D439" t="inlineStr"/>
       <c r="E439" t="inlineStr">
         <is>
-          <t>£-7.28B</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F439" t="inlineStr"/>
@@ -14204,20 +14220,20 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D440" t="inlineStr"/>
       <c r="E440" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>£-3.72B</t>
         </is>
       </c>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr"/>
       <c r="H440" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14234,20 +14250,24 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F441" t="inlineStr"/>
-      <c r="G441" t="inlineStr"/>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14264,13 +14284,13 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr">
         <is>
-          <t>£-3.72B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F442" t="inlineStr"/>
@@ -14294,21 +14314,17 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>Manufacturing Production YoYNOV</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F443" t="inlineStr"/>
-      <c r="G443" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G443" t="inlineStr"/>
       <c r="H443" t="inlineStr">
         <is>
           <t>3</t>
@@ -14318,60 +14334,64 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>€5.153B</t>
         </is>
       </c>
       <c r="F444" t="inlineStr"/>
       <c r="G444" t="inlineStr"/>
       <c r="H444" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F445" t="inlineStr"/>
-      <c r="G445" t="inlineStr"/>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14388,17 +14408,21 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr">
         <is>
-          <t>€5.153B</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F446" t="inlineStr"/>
-      <c r="G446" t="inlineStr"/>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H446" t="inlineStr">
         <is>
           <t>2</t>
@@ -14418,24 +14442,20 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F447" t="inlineStr"/>
-      <c r="G447" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G447" t="inlineStr"/>
       <c r="H447" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14452,49 +14472,41 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D448" t="inlineStr"/>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E448" t="inlineStr"/>
       <c r="F448" t="inlineStr"/>
       <c r="G448" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Bonos Auction</t>
         </is>
       </c>
       <c r="D449" t="inlineStr"/>
-      <c r="E449" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="E449" t="inlineStr"/>
       <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr"/>
       <c r="H449" t="inlineStr">
@@ -14506,27 +14518,23 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Index-Linked Obligacion Auction</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
       <c r="E450" t="inlineStr"/>
       <c r="F450" t="inlineStr"/>
-      <c r="G450" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G450" t="inlineStr"/>
       <c r="H450" t="inlineStr">
         <is>
           <t>3</t>
@@ -14546,7 +14554,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Bonos Auction</t>
+          <t>Obligacion Auction</t>
         </is>
       </c>
       <c r="D451" t="inlineStr"/>
@@ -14562,43 +14570,47 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Index-Linked Obligacion Auction</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
-      <c r="E452" t="inlineStr"/>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>€6.8B</t>
+        </is>
+      </c>
       <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr"/>
       <c r="H452" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Obligacion Auction</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
@@ -14614,53 +14626,61 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>IBC-BR Economic ActivityNOV</t>
         </is>
       </c>
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr">
         <is>
-          <t>€6.8B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr"/>
       <c r="H454" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D455" t="inlineStr"/>
-      <c r="E455" t="inlineStr"/>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F455" t="inlineStr"/>
-      <c r="G455" t="inlineStr"/>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H455" t="inlineStr">
         <is>
           <t>3</t>
@@ -14670,93 +14690,97 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>IBC-BR Economic ActivityNOV</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>262.4K</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr"/>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>220K</t>
+        </is>
+      </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
       <c r="G457" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Export Prices MoMDEC</t>
         </is>
       </c>
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>262.4K</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr">
         <is>
-          <t>220K</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
@@ -14778,24 +14802,20 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G459" t="inlineStr"/>
       <c r="H459" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14812,21 +14832,13 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Export Prices MoMDEC</t>
+          <t>Initial Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
-      <c r="E460" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E460" t="inlineStr"/>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G460" t="inlineStr"/>
       <c r="H460" t="inlineStr">
         <is>
           <t>2</t>
@@ -14846,13 +14858,13 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-16.4</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
@@ -14876,13 +14888,21 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/11</t>
+          <t>Retail Sales Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
-      <c r="E462" t="inlineStr"/>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr"/>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H462" t="inlineStr">
         <is>
           <t>2</t>
@@ -14902,20 +14922,16 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJAN</t>
+          <t>Continuing Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
-      <c r="E463" t="inlineStr">
-        <is>
-          <t>-16.4</t>
-        </is>
-      </c>
+      <c r="E463" t="inlineStr"/>
       <c r="F463" t="inlineStr"/>
       <c r="G463" t="inlineStr"/>
       <c r="H463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14932,24 +14948,20 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G464" t="inlineStr"/>
       <c r="H464" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14966,13 +14978,21 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/04</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
-      <c r="E465" t="inlineStr"/>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr"/>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H465" t="inlineStr">
         <is>
           <t>3</t>
@@ -14992,15 +15012,11 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E466" t="inlineStr"/>
       <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr">
@@ -15022,21 +15038,17 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Philly Fed Business ConditionsJAN</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>30.7</t>
         </is>
       </c>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G467" t="inlineStr"/>
       <c r="H467" t="inlineStr">
         <is>
           <t>3</t>
@@ -15056,11 +15068,15 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/11</t>
+          <t>Philly Fed CAPEX IndexJAN</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
-      <c r="E468" t="inlineStr"/>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
       <c r="F468" t="inlineStr"/>
       <c r="G468" t="inlineStr"/>
       <c r="H468" t="inlineStr">
@@ -15082,13 +15098,13 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJAN</t>
+          <t>Philly Fed EmploymentJAN</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="F469" t="inlineStr"/>
@@ -15112,13 +15128,13 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJAN</t>
+          <t>Philly Fed New OrdersJAN</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="F470" t="inlineStr"/>
@@ -15142,13 +15158,13 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJAN</t>
+          <t>Philly Fed Prices PaidJAN</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
@@ -15172,17 +15188,21 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJAN</t>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
-          <t>-4.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F472" t="inlineStr"/>
-      <c r="G472" t="inlineStr"/>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H472" t="inlineStr">
         <is>
           <t>3</t>
@@ -15202,17 +15222,21 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F473" t="inlineStr"/>
-      <c r="G473" t="inlineStr"/>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="H473" t="inlineStr">
         <is>
           <t>3</t>
@@ -15222,7 +15246,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -15232,31 +15256,27 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F474" t="inlineStr"/>
-      <c r="G474" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G474" t="inlineStr"/>
       <c r="H474" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -15266,24 +15286,20 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>NAHB Housing Market IndexJAN</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15300,7 +15316,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Business Inventories MoMNOV</t>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
@@ -15313,14 +15329,14 @@
       <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -15330,27 +15346,23 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexJAN</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
-      <c r="E477" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
+      <c r="E477" t="inlineStr"/>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr"/>
       <c r="H477" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -15360,15 +15372,11 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMNOV</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
-      <c r="E478" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E478" t="inlineStr"/>
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr"/>
       <c r="H478" t="inlineStr">
@@ -15380,7 +15388,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -15390,7 +15398,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
@@ -15406,7 +15414,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -15416,7 +15424,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>15-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
@@ -15432,7 +15440,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -15442,7 +15450,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>30-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
@@ -15458,7 +15466,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -15468,7 +15476,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/16</t>
+          <t>Fed Balance SheetJAN/15</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
@@ -15484,23 +15492,31 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/16</t>
+          <t>Reuters Tankan IndexJAN</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
-      <c r="E483" t="inlineStr"/>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
       <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr"/>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H483" t="inlineStr">
         <is>
           <t>3</t>
@@ -15510,17 +15526,17 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Foreign Bond InvestmentJAN/11</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
@@ -15536,7 +15552,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -15546,21 +15562,13 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Stock Investment by ForeignersJAN/11</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
-      <c r="E485" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
+      <c r="E485" t="inlineStr"/>
       <c r="F485" t="inlineStr"/>
-      <c r="G485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G485" t="inlineStr"/>
       <c r="H485" t="inlineStr">
         <is>
           <t>3</t>
@@ -16038,26 +16046,150 @@
       <c r="H500" t="inlineStr"/>
     </row>
     <row r="501">
-      <c r="A501" t="inlineStr"/>
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr"/>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr"/>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr"/>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Retail Sales ex Fuel MoMDEC</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr"/>
+      <c r="E503" t="inlineStr"/>
+      <c r="F503" t="inlineStr"/>
+      <c r="G503" t="inlineStr"/>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Retail Sales ex Fuel YoYDEC</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr"/>
+      <c r="E504" t="inlineStr"/>
+      <c r="F504" t="inlineStr"/>
+      <c r="G504" t="inlineStr"/>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr"/>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>50-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr"/>
+      <c r="E505" t="inlineStr">
+        <is>
           <t>2.40%</t>
         </is>
       </c>
-      <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr"/>
-      <c r="H501" t="inlineStr"/>
+      <c r="F505" t="inlineStr"/>
+      <c r="G505" t="inlineStr"/>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-17.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-17.xlsx
@@ -1735,7 +1735,11 @@
           <t>2-Year Schatz Auction</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>1.94%</t>
@@ -1750,31 +1754,31 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PPI MoMNOV</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>LMI Logistics Managers IndexDEC</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
         <v>3</v>
       </c>
@@ -1792,19 +1796,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PPI YoYNOV</t>
+          <t>PPI MoMNOV</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5.89%</t>
+          <t>0.94%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -1819,50 +1823,58 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fiscal Year GDP Growth Prel2025-24</t>
+          <t>PPI YoYNOV</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>8.2%</t>
+          <t>5.89%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>Fiscal Year GDP Growth Prel2025-24</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>8.2%</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
       <c r="H41" t="n">
         <v>2</v>
       </c>
@@ -1870,37 +1882,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>C$-0.92B</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>C$-0.9B</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>C$-1.5B</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1916,23 +1916,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>C$64.22B</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+          <t>C$-0.92B</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>C$-0.9B</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>C$64.0B</t>
+          <t>C$-1.5B</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1948,19 +1952,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>C$65.14B</t>
+          <t>C$64.22B</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>C$65.5B</t>
+          <t>C$64.0B</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -1975,32 +1979,28 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>$-73.8B</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>$-78B</t>
-        </is>
-      </c>
+          <t>C$65.14B</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>$-70B</t>
+          <t>C$65.5B</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2016,19 +2016,23 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>$265.7B</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>$-78B</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>$264B</t>
+          <t>$-70B</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -2048,19 +2052,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>$339.6B</t>
+          <t>$265.7B</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>$334B</t>
+          <t>$264B</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -2070,7 +2074,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2080,55 +2084,51 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/04</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.1%</t>
+          <t>$339.6B</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>$334B</t>
+        </is>
+      </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ivey PMI s.aDEC</t>
+          <t>Redbook YoYJAN/04</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -2139,23 +2139,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ISM Services PMIDEC</t>
+          <t>Ivey PMI s.aDEC</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2180,23 +2180,23 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsNOV</t>
+          <t>ISM Services PMIDEC</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>7.744M</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>7.70M</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>7.69M</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2216,23 +2216,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityDEC</t>
+          <t>JOLTs Job OpeningsNOV</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>53.7</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+          <t>7.744M</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.70M</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>7.69M</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2248,19 +2252,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentDEC</t>
+          <t>ISM Services Business ActivityDEC</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2280,19 +2284,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersDEC</t>
+          <t>ISM Services EmploymentDEC</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2312,19 +2316,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ISM Services PricesDEC</t>
+          <t>ISM Services New OrdersDEC</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2344,19 +2348,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsNOV</t>
+          <t>ISM Services PricesDEC</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3.326M</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>3.31M</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -2366,7 +2370,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2376,17 +2380,21 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>42-Day Bill Auction</t>
+          <t>JOLTs Job QuitsNOV</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4.280%</t>
+          <t>3.326M</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>3.31M</t>
+        </is>
+      </c>
       <c r="H57" t="n">
         <v>3</v>
       </c>
@@ -2394,7 +2402,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2404,13 +2412,13 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>42-Day Bill Auction</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>4.280%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -2422,7 +2430,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2432,145 +2440,149 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/03</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-1.442M</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>-0.25M</t>
-        </is>
-      </c>
+          <t>4.235%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>$9.78B</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>$4.5B</t>
-        </is>
-      </c>
+          <t>-1.442M</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>-0.25M</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorNOV</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+          <t>$9.78B</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>$4.5B</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Monthly CPI IndicatorNOV</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>$150.2B</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>$ 152.0B</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>$150.2B</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>$ 152.0B</t>
+        </is>
+      </c>
       <c r="H63" t="n">
         <v>3</v>
       </c>
@@ -3233,7 +3245,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3301,7 +3313,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3509,7 +3521,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3721,7 +3733,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>139K</t>
+          <t>140K</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -3781,7 +3793,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>217K</t>
+          <t>218K</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -3815,7 +3827,11 @@
           <t>1844K</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1870K</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr">
         <is>
           <t>1848K</t>
@@ -12909,10 +12925,14 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="F402" t="inlineStr"/>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
@@ -12981,8 +13001,16 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="F404" t="inlineStr"/>
-      <c r="G404" t="inlineStr"/>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H404" t="inlineStr">
         <is>
           <t>3</t>
@@ -13006,11 +13034,19 @@
         </is>
       </c>
       <c r="D405" t="inlineStr"/>
-      <c r="E405" t="inlineStr"/>
-      <c r="F405" t="inlineStr"/>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
